--- a/pndata.xlsx
+++ b/pndata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bomim\Documents\PolNetIntroNetworkAnalysis2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC5B453-1892-49E2-9BB9-46EB24DFFCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26A1E49-6241-49D0-8062-67C68F718C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="450" windowWidth="14400" windowHeight="7360" xr2:uid="{613872EB-3EC7-4FEE-8F2D-F6EED64B42FF}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>countryb</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>sign</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -477,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -496,18 +496,18 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -515,13 +515,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
